--- a/BC4400/Lecture2/Homework_0.xlsx
+++ b/BC4400/Lecture2/Homework_0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cuny547-my.sharepoint.com/personal/dailoae_gradcenter_cuny_edu/Documents/Documents/Work/Teaching/_BK_College/HW0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7f196d72845a7bb/Documents/GitHub/wwwedu.github.io/BC4400/Lecture2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{E665FE74-39DA-4982-BFD7-5F0D09B68E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0593E65-F4CE-4BAB-85F8-6E12E33EB1B2}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{E665FE74-39DA-4982-BFD7-5F0D09B68E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E99D35AF-4233-436B-AA83-667F79AF398A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{53A7908B-9D74-4EB3-936A-B59CD547BAB7}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{53A7908B-9D74-4EB3-936A-B59CD547BAB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Grades" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,6 @@
     <sheet name="Student Roster" sheetId="2" r:id="rId3"/>
     <sheet name="GradingScale" sheetId="5" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Grades!$Q$2:$Q$21</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Grades!$P$2:$P$21</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Liam</t>
   </si>
@@ -149,6 +145,18 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>GPA</t>
+  </si>
+  <si>
+    <t>Exam1</t>
+  </si>
+  <si>
+    <t>Exam2</t>
+  </si>
+  <si>
+    <t>Exam3</t>
   </si>
 </sst>
 </file>
@@ -523,17 +531,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C40ED86-FA1F-45A6-AF67-9BF13E09958B}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3046875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -564,8 +574,11 @@
       <c r="J1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>7892</v>
       </c>
@@ -596,9 +609,12 @@
       <c r="J2">
         <v>87</v>
       </c>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="3">
+        <f>SUMPRODUCT(B2:J2,Weights!$A$2:$I$2)</f>
+        <v>84.37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>9904</v>
       </c>
@@ -629,9 +645,12 @@
       <c r="J3">
         <v>92</v>
       </c>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" s="3">
+        <f>SUMPRODUCT(B3:J3,Weights!$A$2:$I$2)</f>
+        <v>92.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>9221</v>
       </c>
@@ -662,9 +681,12 @@
       <c r="J4">
         <v>69</v>
       </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K4" s="3">
+        <f>SUMPRODUCT(B4:J4,Weights!$A$2:$I$2)</f>
+        <v>76.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>9257</v>
       </c>
@@ -695,9 +717,25 @@
       <c r="J5">
         <v>77</v>
       </c>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="3">
+        <f>SUMPRODUCT(B5:J5,Weights!$A$2:$I$2)</f>
+        <v>75.150000000000006</v>
+      </c>
+      <c r="M5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5">
+        <v>95</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="P5">
+        <f>N5*O5</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>7442</v>
       </c>
@@ -728,9 +766,25 @@
       <c r="J6">
         <v>98</v>
       </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="3">
+        <f>SUMPRODUCT(B6:J6,Weights!$A$2:$I$2)</f>
+        <v>82.210000000000008</v>
+      </c>
+      <c r="M6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6">
+        <v>80</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="P6">
+        <f>N6*O6</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>8116</v>
       </c>
@@ -761,9 +815,25 @@
       <c r="J7">
         <v>92</v>
       </c>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="3">
+        <f>SUMPRODUCT(B7:J7,Weights!$A$2:$I$2)</f>
+        <v>87.86999999999999</v>
+      </c>
+      <c r="M7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7">
+        <v>70</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P7">
+        <f>N7*O7</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>9817</v>
       </c>
@@ -794,9 +864,24 @@
       <c r="J8">
         <v>68</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="3">
+        <f>SUMPRODUCT(B8:J8,Weights!$A$2:$I$2)</f>
+        <v>81.220000000000013</v>
+      </c>
+      <c r="O8" s="1">
+        <f>SUM(O5:O7)</f>
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <f>SUM(P5:P7)</f>
+        <v>78</v>
+      </c>
+      <c r="Q8">
+        <f>SUMPRODUCT(N5:N7,O5:O7)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7514</v>
       </c>
@@ -827,9 +912,12 @@
       <c r="J9">
         <v>72</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="3">
+        <f>SUMPRODUCT(B9:J9,Weights!$A$2:$I$2)</f>
+        <v>70.02000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9832</v>
       </c>
@@ -860,9 +948,12 @@
       <c r="J10">
         <v>83</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10" s="3">
+        <f>SUMPRODUCT(B10:J10,Weights!$A$2:$I$2)</f>
+        <v>80.31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9369</v>
       </c>
@@ -893,9 +984,12 @@
       <c r="J11">
         <v>78</v>
       </c>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11" s="3">
+        <f>SUMPRODUCT(B11:J11,Weights!$A$2:$I$2)</f>
+        <v>83.42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>9195</v>
       </c>
@@ -926,9 +1020,12 @@
       <c r="J12">
         <v>76</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="3">
+        <f>SUMPRODUCT(B12:J12,Weights!$A$2:$I$2)</f>
+        <v>76.099999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>8187</v>
       </c>
@@ -959,9 +1056,12 @@
       <c r="J13">
         <v>70</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="3">
+        <f>SUMPRODUCT(B13:J13,Weights!$A$2:$I$2)</f>
+        <v>79.08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>8084</v>
       </c>
@@ -992,9 +1092,12 @@
       <c r="J14">
         <v>93</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K14" s="3">
+        <f>SUMPRODUCT(B14:J14,Weights!$A$2:$I$2)</f>
+        <v>78.91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>9185</v>
       </c>
@@ -1025,9 +1128,12 @@
       <c r="J15">
         <v>77</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="3">
+        <f>SUMPRODUCT(B15:J15,Weights!$A$2:$I$2)</f>
+        <v>78.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>8205</v>
       </c>
@@ -1058,9 +1164,12 @@
       <c r="J16">
         <v>70</v>
       </c>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="3">
+        <f>SUMPRODUCT(B16:J16,Weights!$A$2:$I$2)</f>
+        <v>81.429999999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>7249</v>
       </c>
@@ -1091,9 +1200,12 @@
       <c r="J17">
         <v>69</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="3">
+        <f>SUMPRODUCT(B17:J17,Weights!$A$2:$I$2)</f>
+        <v>84.039999999999992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>9510</v>
       </c>
@@ -1124,9 +1236,12 @@
       <c r="J18">
         <v>82</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="3">
+        <f>SUMPRODUCT(B18:J18,Weights!$A$2:$I$2)</f>
+        <v>81.239999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>8965</v>
       </c>
@@ -1157,9 +1272,12 @@
       <c r="J19">
         <v>72</v>
       </c>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="3">
+        <f>SUMPRODUCT(B19:J19,Weights!$A$2:$I$2)</f>
+        <v>74.809999999999988</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>9128</v>
       </c>
@@ -1190,9 +1308,12 @@
       <c r="J20">
         <v>68</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="3">
+        <f>SUMPRODUCT(B20:J20,Weights!$A$2:$I$2)</f>
+        <v>83.399999999999991</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>7976</v>
       </c>
@@ -1223,7 +1344,10 @@
       <c r="J21">
         <v>100</v>
       </c>
-      <c r="K21" s="3"/>
+      <c r="K21" s="3">
+        <f>SUMPRODUCT(B21:J21,Weights!$A$2:$I$2)</f>
+        <v>90.68</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1237,9 +1361,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1268,7 +1392,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0.15</v>
       </c>
@@ -1309,12 +1433,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1322,7 +1446,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>7892</v>
       </c>
@@ -1330,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>9904</v>
       </c>
@@ -1338,7 +1462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>9221</v>
       </c>
@@ -1346,7 +1470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>9257</v>
       </c>
@@ -1354,7 +1478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>7442</v>
       </c>
@@ -1362,7 +1486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>8116</v>
       </c>
@@ -1370,7 +1494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>9817</v>
       </c>
@@ -1378,7 +1502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7514</v>
       </c>
@@ -1386,7 +1510,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9832</v>
       </c>
@@ -1394,7 +1518,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9369</v>
       </c>
@@ -1402,7 +1526,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>9195</v>
       </c>
@@ -1410,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>8187</v>
       </c>
@@ -1418,7 +1542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>8084</v>
       </c>
@@ -1426,7 +1550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>9185</v>
       </c>
@@ -1434,7 +1558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>8205</v>
       </c>
@@ -1442,7 +1566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>7249</v>
       </c>
@@ -1450,7 +1574,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>9510</v>
       </c>
@@ -1458,7 +1582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>8965</v>
       </c>
@@ -1466,7 +1590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>9128</v>
       </c>
@@ -1474,7 +1598,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>7976</v>
       </c>
@@ -1493,9 +1617,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1503,7 +1627,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>65</v>
       </c>
@@ -1511,7 +1635,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>70</v>
       </c>
@@ -1519,7 +1643,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>75</v>
       </c>
@@ -1527,7 +1651,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>85</v>
       </c>

--- a/BC4400/Lecture2/Homework_0.xlsx
+++ b/BC4400/Lecture2/Homework_0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7f196d72845a7bb/Documents/GitHub/wwwedu.github.io/BC4400/Lecture2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{E665FE74-39DA-4982-BFD7-5F0D09B68E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E99D35AF-4233-436B-AA83-667F79AF398A}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{E665FE74-39DA-4982-BFD7-5F0D09B68E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6FC895A-EDC3-4245-B253-614084BCC273}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{53A7908B-9D74-4EB3-936A-B59CD547BAB7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{53A7908B-9D74-4EB3-936A-B59CD547BAB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Grades" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>Liam</t>
   </si>
@@ -145,18 +145,6 @@
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>GPA</t>
-  </si>
-  <si>
-    <t>Exam1</t>
-  </si>
-  <si>
-    <t>Exam2</t>
-  </si>
-  <si>
-    <t>Exam3</t>
   </si>
 </sst>
 </file>
@@ -531,19 +519,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C40ED86-FA1F-45A6-AF67-9BF13E09958B}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -574,11 +560,8 @@
       <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7892</v>
       </c>
@@ -609,12 +592,9 @@
       <c r="J2">
         <v>87</v>
       </c>
-      <c r="K2" s="3">
-        <f>SUMPRODUCT(B2:J2,Weights!$A$2:$I$2)</f>
-        <v>84.37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9904</v>
       </c>
@@ -645,12 +625,9 @@
       <c r="J3">
         <v>92</v>
       </c>
-      <c r="K3" s="3">
-        <f>SUMPRODUCT(B3:J3,Weights!$A$2:$I$2)</f>
-        <v>92.06</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9221</v>
       </c>
@@ -681,12 +658,9 @@
       <c r="J4">
         <v>69</v>
       </c>
-      <c r="K4" s="3">
-        <f>SUMPRODUCT(B4:J4,Weights!$A$2:$I$2)</f>
-        <v>76.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9257</v>
       </c>
@@ -717,25 +691,10 @@
       <c r="J5">
         <v>77</v>
       </c>
-      <c r="K5" s="3">
-        <f>SUMPRODUCT(B5:J5,Weights!$A$2:$I$2)</f>
-        <v>75.150000000000006</v>
-      </c>
-      <c r="M5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5">
-        <v>95</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="P5">
-        <f>N5*O5</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="K5" s="3"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7442</v>
       </c>
@@ -766,25 +725,10 @@
       <c r="J6">
         <v>98</v>
       </c>
-      <c r="K6" s="3">
-        <f>SUMPRODUCT(B6:J6,Weights!$A$2:$I$2)</f>
-        <v>82.210000000000008</v>
-      </c>
-      <c r="M6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6">
-        <v>80</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="P6">
-        <f>N6*O6</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="K6" s="3"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8116</v>
       </c>
@@ -815,25 +759,10 @@
       <c r="J7">
         <v>92</v>
       </c>
-      <c r="K7" s="3">
-        <f>SUMPRODUCT(B7:J7,Weights!$A$2:$I$2)</f>
-        <v>87.86999999999999</v>
-      </c>
-      <c r="M7" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7">
-        <v>70</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P7">
-        <f>N7*O7</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="K7" s="3"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9817</v>
       </c>
@@ -864,24 +793,10 @@
       <c r="J8">
         <v>68</v>
       </c>
-      <c r="K8" s="3">
-        <f>SUMPRODUCT(B8:J8,Weights!$A$2:$I$2)</f>
-        <v>81.220000000000013</v>
-      </c>
-      <c r="O8" s="1">
-        <f>SUM(O5:O7)</f>
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <f>SUM(P5:P7)</f>
-        <v>78</v>
-      </c>
-      <c r="Q8">
-        <f>SUMPRODUCT(N5:N7,O5:O7)</f>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="K8" s="3"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7514</v>
       </c>
@@ -912,12 +827,9 @@
       <c r="J9">
         <v>72</v>
       </c>
-      <c r="K9" s="3">
-        <f>SUMPRODUCT(B9:J9,Weights!$A$2:$I$2)</f>
-        <v>70.02000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9832</v>
       </c>
@@ -948,12 +860,9 @@
       <c r="J10">
         <v>83</v>
       </c>
-      <c r="K10" s="3">
-        <f>SUMPRODUCT(B10:J10,Weights!$A$2:$I$2)</f>
-        <v>80.31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9369</v>
       </c>
@@ -984,12 +893,9 @@
       <c r="J11">
         <v>78</v>
       </c>
-      <c r="K11" s="3">
-        <f>SUMPRODUCT(B11:J11,Weights!$A$2:$I$2)</f>
-        <v>83.42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9195</v>
       </c>
@@ -1020,12 +926,9 @@
       <c r="J12">
         <v>76</v>
       </c>
-      <c r="K12" s="3">
-        <f>SUMPRODUCT(B12:J12,Weights!$A$2:$I$2)</f>
-        <v>76.099999999999994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8187</v>
       </c>
@@ -1056,12 +959,9 @@
       <c r="J13">
         <v>70</v>
       </c>
-      <c r="K13" s="3">
-        <f>SUMPRODUCT(B13:J13,Weights!$A$2:$I$2)</f>
-        <v>79.08</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8084</v>
       </c>
@@ -1092,12 +992,9 @@
       <c r="J14">
         <v>93</v>
       </c>
-      <c r="K14" s="3">
-        <f>SUMPRODUCT(B14:J14,Weights!$A$2:$I$2)</f>
-        <v>78.91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9185</v>
       </c>
@@ -1128,12 +1025,9 @@
       <c r="J15">
         <v>77</v>
       </c>
-      <c r="K15" s="3">
-        <f>SUMPRODUCT(B15:J15,Weights!$A$2:$I$2)</f>
-        <v>78.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8205</v>
       </c>
@@ -1164,12 +1058,9 @@
       <c r="J16">
         <v>70</v>
       </c>
-      <c r="K16" s="3">
-        <f>SUMPRODUCT(B16:J16,Weights!$A$2:$I$2)</f>
-        <v>81.429999999999993</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7249</v>
       </c>
@@ -1200,12 +1091,9 @@
       <c r="J17">
         <v>69</v>
       </c>
-      <c r="K17" s="3">
-        <f>SUMPRODUCT(B17:J17,Weights!$A$2:$I$2)</f>
-        <v>84.039999999999992</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9510</v>
       </c>
@@ -1236,12 +1124,9 @@
       <c r="J18">
         <v>82</v>
       </c>
-      <c r="K18" s="3">
-        <f>SUMPRODUCT(B18:J18,Weights!$A$2:$I$2)</f>
-        <v>81.239999999999995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8965</v>
       </c>
@@ -1272,12 +1157,9 @@
       <c r="J19">
         <v>72</v>
       </c>
-      <c r="K19" s="3">
-        <f>SUMPRODUCT(B19:J19,Weights!$A$2:$I$2)</f>
-        <v>74.809999999999988</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9128</v>
       </c>
@@ -1308,12 +1190,9 @@
       <c r="J20">
         <v>68</v>
       </c>
-      <c r="K20" s="3">
-        <f>SUMPRODUCT(B20:J20,Weights!$A$2:$I$2)</f>
-        <v>83.399999999999991</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7976</v>
       </c>
@@ -1344,10 +1223,7 @@
       <c r="J21">
         <v>100</v>
       </c>
-      <c r="K21" s="3">
-        <f>SUMPRODUCT(B21:J21,Weights!$A$2:$I$2)</f>
-        <v>90.68</v>
-      </c>
+      <c r="K21" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1361,9 +1237,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1392,7 +1268,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0.15</v>
       </c>
@@ -1433,12 +1309,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1446,7 +1322,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7892</v>
       </c>
@@ -1454,7 +1330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9904</v>
       </c>
@@ -1462,7 +1338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9221</v>
       </c>
@@ -1470,7 +1346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9257</v>
       </c>
@@ -1478,7 +1354,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7442</v>
       </c>
@@ -1486,7 +1362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8116</v>
       </c>
@@ -1494,7 +1370,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9817</v>
       </c>
@@ -1502,7 +1378,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7514</v>
       </c>
@@ -1510,7 +1386,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9832</v>
       </c>
@@ -1518,7 +1394,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9369</v>
       </c>
@@ -1526,7 +1402,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9195</v>
       </c>
@@ -1534,7 +1410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8187</v>
       </c>
@@ -1542,7 +1418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8084</v>
       </c>
@@ -1550,7 +1426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9185</v>
       </c>
@@ -1558,7 +1434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8205</v>
       </c>
@@ -1566,7 +1442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7249</v>
       </c>
@@ -1574,7 +1450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9510</v>
       </c>
@@ -1582,7 +1458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8965</v>
       </c>
@@ -1590,7 +1466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9128</v>
       </c>
@@ -1598,7 +1474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7976</v>
       </c>
@@ -1617,9 +1493,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1627,7 +1503,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>65</v>
       </c>
@@ -1635,7 +1511,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>70</v>
       </c>
@@ -1643,7 +1519,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>75</v>
       </c>
@@ -1651,7 +1527,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>85</v>
       </c>
